--- a/config/antiSac/antisac_run3.xlsx
+++ b/config/antiSac/antisac_run3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,10 +1026,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1122,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>6.725</v>
@@ -1142,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>8.8</v>
@@ -1282,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>1.25</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <v>24.075</v>
@@ -1322,13 +1322,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <v>29.475</v>
@@ -1483,13 +1483,13 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>0.5</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2">
         <v>49.325</v>
@@ -1523,13 +1523,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>1.25</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2">
         <v>52.975</v>
